--- a/processing/final/queuing_model/network.xlsx
+++ b/processing/final/queuing_model/network.xlsx
@@ -241,6 +241,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -700,11 +701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459126784"/>
-        <c:axId val="459128928"/>
+        <c:axId val="2078302080"/>
+        <c:axId val="2078306704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459126784"/>
+        <c:axId val="2078302080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,6 +756,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -820,12 +822,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459128928"/>
+        <c:crossAx val="2078306704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459128928"/>
+        <c:axId val="2078306704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -873,6 +875,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -939,7 +942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459126784"/>
+        <c:crossAx val="2078302080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -953,6 +956,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1064,6 +1068,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1523,11 +1528,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="619724560"/>
-        <c:axId val="619728192"/>
+        <c:axId val="1936286736"/>
+        <c:axId val="1936291008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="619724560"/>
+        <c:axId val="1936286736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,6 +1583,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1643,12 +1649,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619728192"/>
+        <c:crossAx val="1936291008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="619728192"/>
+        <c:axId val="1936291008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1696,6 +1702,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1762,7 +1769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619724560"/>
+        <c:crossAx val="1936286736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1776,6 +1783,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2347,11 +2355,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="619763968"/>
-        <c:axId val="619768240"/>
+        <c:axId val="1936327312"/>
+        <c:axId val="1936331584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="619763968"/>
+        <c:axId val="1936327312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,12 +2477,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619768240"/>
+        <c:crossAx val="1936331584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="619768240"/>
+        <c:axId val="1936331584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2589,7 +2597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619763968"/>
+        <c:crossAx val="1936327312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2715,6 +2723,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3174,11 +3183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="619801040"/>
-        <c:axId val="619805312"/>
+        <c:axId val="1936364960"/>
+        <c:axId val="1936369232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="619801040"/>
+        <c:axId val="1936364960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3229,6 +3238,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3295,12 +3305,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619805312"/>
+        <c:crossAx val="1936369232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="619805312"/>
+        <c:axId val="1936369232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3348,6 +3358,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3414,7 +3425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619801040"/>
+        <c:crossAx val="1936364960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3428,6 +3439,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3999,11 +4011,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="458102544"/>
-        <c:axId val="458106176"/>
+        <c:axId val="1936409008"/>
+        <c:axId val="1936413280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="458102544"/>
+        <c:axId val="1936409008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4120,12 +4132,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458106176"/>
+        <c:crossAx val="1936413280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458106176"/>
+        <c:axId val="1936413280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4240,7 +4252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458102544"/>
+        <c:crossAx val="1936409008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4825,11 +4837,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="458141520"/>
-        <c:axId val="619821136"/>
+        <c:axId val="1936446128"/>
+        <c:axId val="1936450400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="458141520"/>
+        <c:axId val="1936446128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4946,12 +4958,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619821136"/>
+        <c:crossAx val="1936450400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="619821136"/>
+        <c:axId val="1936450400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -5066,7 +5078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458141520"/>
+        <c:crossAx val="1936446128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5652,11 +5664,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="675046560"/>
-        <c:axId val="674699728"/>
+        <c:axId val="1936483600"/>
+        <c:axId val="1936487872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="675046560"/>
+        <c:axId val="1936483600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5773,12 +5785,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674699728"/>
+        <c:crossAx val="1936487872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="674699728"/>
+        <c:axId val="1936487872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -5893,7 +5905,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675046560"/>
+        <c:crossAx val="1936483600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6478,11 +6490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="674996480"/>
-        <c:axId val="674975456"/>
+        <c:axId val="1936516736"/>
+        <c:axId val="1936521008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="674996480"/>
+        <c:axId val="1936516736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6599,12 +6611,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674975456"/>
+        <c:crossAx val="1936521008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="674975456"/>
+        <c:axId val="1936521008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -6719,7 +6731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674996480"/>
+        <c:crossAx val="1936516736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11772,8 +11784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR115" workbookViewId="0">
-      <selection activeCell="BB158" sqref="BB158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
